--- a/AccountApprovePack1.xlsx
+++ b/AccountApprovePack1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -67,79 +67,73 @@
     <x:t>Shows fields to enter to create a new Account</x:t>
   </x:si>
   <x:si>
-    <x:t>Valid value for required field Name</x:t>
+    <x:t>Valid value for required field Account Name</x:t>
   </x:si>
   <x:si>
     <x:t>Step 2</x:t>
   </x:si>
   <x:si>
-    <x:t>Enter valid value for Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for required field AnnualRevenue, value should be greater or equal 50000.45 to submit for Approval towards to the assigned approver - user:radhapatil@gmail.com</x:t>
+    <x:t>Input valid value in the  Account Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Account Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for Rating</x:t>
   </x:si>
   <x:si>
     <x:t>Step 3</x:t>
   </x:si>
   <x:si>
-    <x:t>Enter valid value for AnnualRevenue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for AnnualRevenue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for required field CustomerPriority__c, value should be equals High to submit for Approval towards to the assigned approver - user:neha@transitusnexgen.com</x:t>
+    <x:t>Input valid value in the  Rating field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Rating field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for Industry</x:t>
   </x:si>
   <x:si>
     <x:t>Step 4</x:t>
   </x:si>
   <x:si>
-    <x:t>Enter valid value for CustomerPriority__c</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for CustomerPriority__c</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for required field Website, value should be equals iTechnologies.in to submit for Approval towards to the assigned approver - user:radhapatil@gmail.com</x:t>
+    <x:t>Input valid value in the  Industry field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Industry field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for Fax</x:t>
   </x:si>
   <x:si>
     <x:t>Step 5</x:t>
   </x:si>
   <x:si>
-    <x:t>Enter valid value for Website</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Website</x:t>
+    <x:t>Input valid value in the  Fax field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Fax field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for Phone</x:t>
   </x:si>
   <x:si>
     <x:t>Step 6</x:t>
   </x:si>
   <x:si>
+    <x:t>Input valid value in the  Phone field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Phone field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 7</x:t>
+  </x:si>
+  <x:si>
     <x:t>Click on Save button to save Account with fields</x:t>
   </x:si>
   <x:si>
     <x:t>Saved changes successfully for the Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>If this record meets the entry criteria then Click on 'Submit for Approval' button to Submit for Approval.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alert message box will be displayed for confirmation from Salesforce.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on 'OK' button to submit the record for Approval.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Unable to Submit for Approval message will be displayed if this record does not meet the entry criteria. Otherwise, this record will be displayed under Approval History section with the status 'Pending'.</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_2</x:t>
@@ -280,8 +274,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J21" totalsRowShown="0">
-  <x:autoFilter ref="A1:J21"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J19" totalsRowShown="0">
+  <x:autoFilter ref="A1:J19"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -586,7 +580,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J21"/>
+  <x:dimension ref="A1:J19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -596,10 +590,10 @@
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="16.550625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="156.41062499999998" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="41.550625000000004" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="93.700624999999988" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="179.840625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="56.980625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="43.130625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
   </x:cols>
@@ -747,15 +741,17 @@
       <x:c r="B7" s="0" t="s"/>
       <x:c r="C7" s="0" t="s"/>
       <x:c r="D7" s="0" t="s"/>
-      <x:c r="E7" s="0" t="s"/>
+      <x:c r="E7" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s"/>
       <x:c r="J7" s="0" t="s"/>
@@ -767,51 +763,51 @@
       <x:c r="D8" s="0" t="s"/>
       <x:c r="E8" s="0" t="s"/>
       <x:c r="F8" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s"/>
       <x:c r="J8" s="0" t="s"/>
     </x:row>
     <x:row r="9" spans="1:10">
-      <x:c r="A9" s="0" t="s"/>
-      <x:c r="B9" s="0" t="s"/>
-      <x:c r="C9" s="0" t="s"/>
-      <x:c r="D9" s="0" t="s"/>
+      <x:c r="A9" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E9" s="0" t="s"/>
       <x:c r="F9" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s"/>
       <x:c r="J9" s="0" t="s"/>
     </x:row>
     <x:row r="10" spans="1:10">
-      <x:c r="A10" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
+      <x:c r="A10" s="0" t="s"/>
+      <x:c r="B10" s="0" t="s"/>
+      <x:c r="C10" s="0" t="s"/>
+      <x:c r="D10" s="0" t="s"/>
       <x:c r="E10" s="0" t="s"/>
       <x:c r="F10" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
         <x:v>45</x:v>
@@ -823,45 +819,47 @@
       <x:c r="J10" s="0" t="s"/>
     </x:row>
     <x:row r="11" spans="1:10">
-      <x:c r="A11" s="0" t="s"/>
-      <x:c r="B11" s="0" t="s"/>
-      <x:c r="C11" s="0" t="s"/>
-      <x:c r="D11" s="0" t="s"/>
+      <x:c r="A11" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E11" s="0" t="s"/>
       <x:c r="F11" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
     </x:row>
     <x:row r="12" spans="1:10">
-      <x:c r="A12" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s"/>
+      <x:c r="A12" s="0" t="s"/>
+      <x:c r="B12" s="0" t="s"/>
+      <x:c r="C12" s="0" t="s"/>
+      <x:c r="D12" s="0" t="s"/>
+      <x:c r="E12" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s"/>
       <x:c r="J12" s="0" t="s"/>
@@ -872,16 +870,16 @@
       <x:c r="C13" s="0" t="s"/>
       <x:c r="D13" s="0" t="s"/>
       <x:c r="E13" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
@@ -892,16 +890,16 @@
       <x:c r="C14" s="0" t="s"/>
       <x:c r="D14" s="0" t="s"/>
       <x:c r="E14" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
@@ -912,16 +910,16 @@
       <x:c r="C15" s="0" t="s"/>
       <x:c r="D15" s="0" t="s"/>
       <x:c r="E15" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s"/>
       <x:c r="J15" s="0" t="s"/>
@@ -932,16 +930,16 @@
       <x:c r="C16" s="0" t="s"/>
       <x:c r="D16" s="0" t="s"/>
       <x:c r="E16" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s"/>
       <x:c r="J16" s="0" t="s"/>
@@ -953,31 +951,39 @@
       <x:c r="D17" s="0" t="s"/>
       <x:c r="E17" s="0" t="s"/>
       <x:c r="F17" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H17" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s"/>
       <x:c r="J17" s="0" t="s"/>
     </x:row>
     <x:row r="18" spans="1:10">
-      <x:c r="A18" s="0" t="s"/>
-      <x:c r="B18" s="0" t="s"/>
-      <x:c r="C18" s="0" t="s"/>
-      <x:c r="D18" s="0" t="s"/>
+      <x:c r="A18" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E18" s="0" t="s"/>
       <x:c r="F18" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H18" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s"/>
       <x:c r="J18" s="0" t="s"/>
@@ -989,60 +995,16 @@
       <x:c r="D19" s="0" t="s"/>
       <x:c r="E19" s="0" t="s"/>
       <x:c r="F19" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H19" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s"/>
       <x:c r="J19" s="0" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:10">
-      <x:c r="A20" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B20" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C20" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="D20" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E20" s="0" t="s"/>
-      <x:c r="F20" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G20" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="H20" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="I20" s="0" t="s"/>
-      <x:c r="J20" s="0" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:10">
-      <x:c r="A21" s="0" t="s"/>
-      <x:c r="B21" s="0" t="s"/>
-      <x:c r="C21" s="0" t="s"/>
-      <x:c r="D21" s="0" t="s"/>
-      <x:c r="E21" s="0" t="s"/>
-      <x:c r="F21" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G21" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="H21" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="I21" s="0" t="s"/>
-      <x:c r="J21" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/AccountApprovePack1.xlsx
+++ b/AccountApprovePack1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -61,7 +61,7 @@
     <x:t>Step 1</x:t>
   </x:si>
   <x:si>
-    <x:t>Click Account tab, and click on New button</x:t>
+    <x:t>Click on the Account tab, and click on New button</x:t>
   </x:si>
   <x:si>
     <x:t>Shows fields to enter to create a new Account</x:t>
@@ -79,118 +79,124 @@
     <x:t>Value accepted for Account Name field.</x:t>
   </x:si>
   <x:si>
-    <x:t>Valid value for Rating</x:t>
+    <x:t>Valid value for required field Website, value should be equals iTechnologies.in to submit for Approval towards to the assigned approver</x:t>
   </x:si>
   <x:si>
     <x:t>Step 3</x:t>
   </x:si>
   <x:si>
-    <x:t>Input valid value in the  Rating field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Rating field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for Industry</x:t>
+    <x:t>Input valid value in the  Website field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Website field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for required field Annual Revenue, value should be greater or equal 50000.45 to submit for Approval towards to the assigned approver</x:t>
   </x:si>
   <x:si>
     <x:t>Step 4</x:t>
   </x:si>
   <x:si>
-    <x:t>Input valid value in the  Industry field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Industry field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for Fax</x:t>
+    <x:t>Input valid value in the  Annual Revenue field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Annual Revenue field.</x:t>
   </x:si>
   <x:si>
     <x:t>Step 5</x:t>
   </x:si>
   <x:si>
-    <x:t>Input valid value in the  Fax field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Fax field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for Phone</x:t>
+    <x:t>Click on Save button to save Account with fields</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Saved changes successfully for the Account</x:t>
   </x:si>
   <x:si>
     <x:t>Step 6</x:t>
   </x:si>
   <x:si>
-    <x:t>Input valid value in the  Phone field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Phone field.</x:t>
+    <x:t>On the Account page, Click on 'Submit for Approval' button to Submit for Approval.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pop-up confirming to submit the record for Approval is displayed.</x:t>
   </x:si>
   <x:si>
     <x:t>Step 7</x:t>
   </x:si>
   <x:si>
-    <x:t>Click on Save button to save Account with fields</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Saved changes successfully for the Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>View Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click Account tab,  and click on existing Account name to view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shows fields for Account selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Account name to View the Details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Details of Account successfully displayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_3.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Edit Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click Account tab,  and click on existing Account to modify</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shows fields to modify for an existing Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_4.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Delete Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click Account tab,  and click on existing Account to delete</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Show popup to confirm deletion of Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click yes on confirm dialog to Delete the Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Deleted the Account successfully</x:t>
+    <x:t>Click on 'OK' button to submit the record for Approval.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The record will be displayed under Approval History section with the status 'Pending'.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>If the user is navigated to the 'Choose Approver' page, he should be able to input the Next Approver.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User is able to input the Next Approver.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on 'Send to Next Approver' button.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The record will be displayed under Approval History section with the status 'Pending' and the updated Approver Name.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>For this Approval process, if e-mail notification is configured, validate that the Approver receives an e-mail with Approve/Reject request.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to view the e-mail to either Approve/Reject the request.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Approve/Reject Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Click on the Account tab, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>From the list of the  Accounts displayed, select the appropriate Account.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Account details page.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scroll down the Account page to locate the 'Approval History' section.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to view the pending Approve/Reject requests listed.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>To Approve/Reject the record's request, Click on 'Approve/Reject' link.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Approval Request, Account:(Approver Name) Page.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In the 'Approve/Reject Approval Request' section, input comments if required.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input appropriate comments.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the 'Approve' or the 'Reject' button to either Approve or Reject the request.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to either 'Approve' or 'Reject' the request.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>On performing either 'Approval' or 'Rejection' action, user is navigated to the Account request page.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to view the request is either 'Approved' or 'Rejected'.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -588,12 +594,12 @@
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="16.550625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="24.550625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="41.550625000000004" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="56.980625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="43.130625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="130.980625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.410625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="123.130625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="107.550625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
   </x:cols>
@@ -721,17 +727,15 @@
       <x:c r="B6" s="0" t="s"/>
       <x:c r="C6" s="0" t="s"/>
       <x:c r="D6" s="0" t="s"/>
-      <x:c r="E6" s="0" t="s">
+      <x:c r="E6" s="0" t="s"/>
+      <x:c r="F6" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="F6" s="0" t="s">
+      <x:c r="G6" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="G6" s="0" t="s">
+      <x:c r="H6" s="0" t="s">
         <x:v>31</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>32</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s"/>
       <x:c r="J6" s="0" t="s"/>
@@ -741,17 +745,15 @@
       <x:c r="B7" s="0" t="s"/>
       <x:c r="C7" s="0" t="s"/>
       <x:c r="D7" s="0" t="s"/>
-      <x:c r="E7" s="0" t="s">
+      <x:c r="E7" s="0" t="s"/>
+      <x:c r="F7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="F7" s="0" t="s">
+      <x:c r="H7" s="0" t="s">
         <x:v>34</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>36</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s"/>
       <x:c r="J7" s="0" t="s"/>
@@ -763,39 +765,31 @@
       <x:c r="D8" s="0" t="s"/>
       <x:c r="E8" s="0" t="s"/>
       <x:c r="F8" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
         <x:v>37</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
-        <x:v>39</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s"/>
       <x:c r="J8" s="0" t="s"/>
     </x:row>
     <x:row r="9" spans="1:10">
-      <x:c r="A9" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
+      <x:c r="A9" s="0" t="s"/>
+      <x:c r="B9" s="0" t="s"/>
+      <x:c r="C9" s="0" t="s"/>
+      <x:c r="D9" s="0" t="s"/>
       <x:c r="E9" s="0" t="s"/>
       <x:c r="F9" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s"/>
       <x:c r="J9" s="0" t="s"/>
@@ -807,60 +801,56 @@
       <x:c r="D10" s="0" t="s"/>
       <x:c r="E10" s="0" t="s"/>
       <x:c r="F10" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
     </x:row>
     <x:row r="11" spans="1:10">
-      <x:c r="A11" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
+      <x:c r="A11" s="0" t="s"/>
+      <x:c r="B11" s="0" t="s"/>
+      <x:c r="C11" s="0" t="s"/>
+      <x:c r="D11" s="0" t="s"/>
       <x:c r="E11" s="0" t="s"/>
       <x:c r="F11" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
     </x:row>
     <x:row r="12" spans="1:10">
-      <x:c r="A12" s="0" t="s"/>
-      <x:c r="B12" s="0" t="s"/>
-      <x:c r="C12" s="0" t="s"/>
-      <x:c r="D12" s="0" t="s"/>
-      <x:c r="E12" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
+      <x:c r="A12" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s"/>
       <x:c r="F12" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H12" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s"/>
       <x:c r="I12" s="0" t="s"/>
       <x:c r="J12" s="0" t="s"/>
     </x:row>
@@ -869,17 +859,15 @@
       <x:c r="B13" s="0" t="s"/>
       <x:c r="C13" s="0" t="s"/>
       <x:c r="D13" s="0" t="s"/>
-      <x:c r="E13" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
+      <x:c r="E13" s="0" t="s"/>
       <x:c r="F13" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
@@ -889,17 +877,15 @@
       <x:c r="B14" s="0" t="s"/>
       <x:c r="C14" s="0" t="s"/>
       <x:c r="D14" s="0" t="s"/>
-      <x:c r="E14" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
+      <x:c r="E14" s="0" t="s"/>
       <x:c r="F14" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
@@ -909,17 +895,15 @@
       <x:c r="B15" s="0" t="s"/>
       <x:c r="C15" s="0" t="s"/>
       <x:c r="D15" s="0" t="s"/>
-      <x:c r="E15" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
+      <x:c r="E15" s="0" t="s"/>
       <x:c r="F15" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s"/>
       <x:c r="J15" s="0" t="s"/>
@@ -929,17 +913,15 @@
       <x:c r="B16" s="0" t="s"/>
       <x:c r="C16" s="0" t="s"/>
       <x:c r="D16" s="0" t="s"/>
-      <x:c r="E16" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
+      <x:c r="E16" s="0" t="s"/>
       <x:c r="F16" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s"/>
       <x:c r="J16" s="0" t="s"/>
@@ -951,39 +933,31 @@
       <x:c r="D17" s="0" t="s"/>
       <x:c r="E17" s="0" t="s"/>
       <x:c r="F17" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H17" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s"/>
       <x:c r="J17" s="0" t="s"/>
     </x:row>
     <x:row r="18" spans="1:10">
-      <x:c r="A18" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B18" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C18" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
+      <x:c r="A18" s="0" t="s"/>
+      <x:c r="B18" s="0" t="s"/>
+      <x:c r="C18" s="0" t="s"/>
+      <x:c r="D18" s="0" t="s"/>
       <x:c r="E18" s="0" t="s"/>
       <x:c r="F18" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H18" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s"/>
       <x:c r="J18" s="0" t="s"/>
@@ -995,13 +969,13 @@
       <x:c r="D19" s="0" t="s"/>
       <x:c r="E19" s="0" t="s"/>
       <x:c r="F19" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H19" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s"/>
       <x:c r="J19" s="0" t="s"/>
